--- a/staff.xlsx
+++ b/staff.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/staff.xlsx
+++ b/staff.xlsx
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,14 +81,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,40 +420,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
